--- a/natmiOut/OldD7/LR-pairs_lrc2p/Fgf1-Cspg4.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Fgf1-Cspg4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Cspg4</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.457077805261824</v>
+        <v>0.5247423333333333</v>
       </c>
       <c r="H2">
-        <v>0.457077805261824</v>
+        <v>1.574227</v>
       </c>
       <c r="I2">
-        <v>0.06842590030036007</v>
+        <v>0.044891155074209</v>
       </c>
       <c r="J2">
-        <v>0.06842590030036007</v>
+        <v>0.044891155074209</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.75676995707127</v>
+        <v>4.723583666666666</v>
       </c>
       <c r="N2">
-        <v>3.75676995707127</v>
+        <v>14.170751</v>
       </c>
       <c r="O2">
-        <v>0.1622955372280468</v>
+        <v>0.1402914168557431</v>
       </c>
       <c r="P2">
-        <v>0.1622955372280468</v>
+        <v>0.1402914168557431</v>
       </c>
       <c r="Q2">
-        <v>1.717136166851693</v>
+        <v>2.478664314941889</v>
       </c>
       <c r="R2">
-        <v>1.717136166851693</v>
+        <v>22.307978834477</v>
       </c>
       <c r="S2">
-        <v>0.01110521824955971</v>
+        <v>0.006297843749651665</v>
       </c>
       <c r="T2">
-        <v>0.01110521824955971</v>
+        <v>0.006297843749651665</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.457077805261824</v>
+        <v>0.5247423333333333</v>
       </c>
       <c r="H3">
-        <v>0.457077805261824</v>
+        <v>1.574227</v>
       </c>
       <c r="I3">
-        <v>0.06842590030036007</v>
+        <v>0.044891155074209</v>
       </c>
       <c r="J3">
-        <v>0.06842590030036007</v>
+        <v>0.044891155074209</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>10.3124400633765</v>
+        <v>10.354856</v>
       </c>
       <c r="N3">
-        <v>10.3124400633765</v>
+        <v>31.064568</v>
       </c>
       <c r="O3">
-        <v>0.4455058519267143</v>
+        <v>0.3075413758051058</v>
       </c>
       <c r="P3">
-        <v>0.4455058519267143</v>
+        <v>0.3075413758051058</v>
       </c>
       <c r="Q3">
-        <v>4.713587471062236</v>
+        <v>5.433631298770666</v>
       </c>
       <c r="R3">
-        <v>4.713587471062236</v>
+        <v>48.90268168893601</v>
       </c>
       <c r="S3">
-        <v>0.03048413900716433</v>
+        <v>0.01380588759300259</v>
       </c>
       <c r="T3">
-        <v>0.03048413900716433</v>
+        <v>0.01380588759300259</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.457077805261824</v>
+        <v>0.5247423333333333</v>
       </c>
       <c r="H4">
-        <v>0.457077805261824</v>
+        <v>1.574227</v>
       </c>
       <c r="I4">
-        <v>0.06842590030036007</v>
+        <v>0.044891155074209</v>
       </c>
       <c r="J4">
-        <v>0.06842590030036007</v>
+        <v>0.044891155074209</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.360836486514916</v>
+        <v>0.6477360000000001</v>
       </c>
       <c r="N4">
-        <v>0.360836486514916</v>
+        <v>1.943208</v>
       </c>
       <c r="O4">
-        <v>0.01558843157808722</v>
+        <v>0.01923789385371424</v>
       </c>
       <c r="P4">
-        <v>0.01558843157808722</v>
+        <v>0.01923789385371424</v>
       </c>
       <c r="Q4">
-        <v>0.1649303493146256</v>
+        <v>0.339894500024</v>
       </c>
       <c r="R4">
-        <v>0.1649303493146256</v>
+        <v>3.059050500216001</v>
       </c>
       <c r="S4">
-        <v>0.001066652465001181</v>
+        <v>0.0008636112762882582</v>
       </c>
       <c r="T4">
-        <v>0.001066652465001181</v>
+        <v>0.0008636112762882582</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.457077805261824</v>
+        <v>0.5247423333333333</v>
       </c>
       <c r="H5">
-        <v>0.457077805261824</v>
+        <v>1.574227</v>
       </c>
       <c r="I5">
-        <v>0.06842590030036007</v>
+        <v>0.044891155074209</v>
       </c>
       <c r="J5">
-        <v>0.06842590030036007</v>
+        <v>0.044891155074209</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.71766304337762</v>
+        <v>17.94362233333333</v>
       </c>
       <c r="N5">
-        <v>8.71766304337762</v>
+        <v>53.830867</v>
       </c>
       <c r="O5">
-        <v>0.3766101792671516</v>
+        <v>0.5329293134854368</v>
       </c>
       <c r="P5">
-        <v>0.3766101792671516</v>
+        <v>0.5329293134854368</v>
       </c>
       <c r="Q5">
-        <v>3.984650290879156</v>
+        <v>9.415778251645444</v>
       </c>
       <c r="R5">
-        <v>3.984650290879156</v>
+        <v>84.742004264809</v>
       </c>
       <c r="S5">
-        <v>0.02576989057863485</v>
+        <v>0.02392381245526649</v>
       </c>
       <c r="T5">
-        <v>0.02576989057863485</v>
+        <v>0.02392381245526649</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.34557888966876</v>
+        <v>4.531154666666667</v>
       </c>
       <c r="H6">
-        <v>4.34557888966876</v>
+        <v>13.593464</v>
       </c>
       <c r="I6">
-        <v>0.6505460217686471</v>
+        <v>0.3876355191593572</v>
       </c>
       <c r="J6">
-        <v>0.6505460217686471</v>
+        <v>0.3876355191593572</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.75676995707127</v>
+        <v>4.723583666666666</v>
       </c>
       <c r="N6">
-        <v>3.75676995707127</v>
+        <v>14.170751</v>
       </c>
       <c r="O6">
-        <v>0.1622955372280468</v>
+        <v>0.1402914168557431</v>
       </c>
       <c r="P6">
-        <v>0.1622955372280468</v>
+        <v>0.1402914168557431</v>
       </c>
       <c r="Q6">
-        <v>16.32534021879072</v>
+        <v>21.40328817460711</v>
       </c>
       <c r="R6">
-        <v>16.32534021879072</v>
+        <v>192.629593571464</v>
       </c>
       <c r="S6">
-        <v>0.1055807160945112</v>
+        <v>0.05438193620647779</v>
       </c>
       <c r="T6">
-        <v>0.1055807160945112</v>
+        <v>0.05438193620647779</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.34557888966876</v>
+        <v>4.531154666666667</v>
       </c>
       <c r="H7">
-        <v>4.34557888966876</v>
+        <v>13.593464</v>
       </c>
       <c r="I7">
-        <v>0.6505460217686471</v>
+        <v>0.3876355191593572</v>
       </c>
       <c r="J7">
-        <v>0.6505460217686471</v>
+        <v>0.3876355191593572</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.3124400633765</v>
+        <v>10.354856</v>
       </c>
       <c r="N7">
-        <v>10.3124400633765</v>
+        <v>31.064568</v>
       </c>
       <c r="O7">
-        <v>0.4455058519267143</v>
+        <v>0.3075413758051058</v>
       </c>
       <c r="P7">
-        <v>0.4455058519267143</v>
+        <v>0.3075413758051058</v>
       </c>
       <c r="Q7">
-        <v>44.81352184038328</v>
+        <v>46.91945408706133</v>
       </c>
       <c r="R7">
-        <v>44.81352184038328</v>
+        <v>422.275086783552</v>
       </c>
       <c r="S7">
-        <v>0.2898220596455759</v>
+        <v>0.1192139608731952</v>
       </c>
       <c r="T7">
-        <v>0.2898220596455759</v>
+        <v>0.1192139608731952</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.34557888966876</v>
+        <v>4.531154666666667</v>
       </c>
       <c r="H8">
-        <v>4.34557888966876</v>
+        <v>13.593464</v>
       </c>
       <c r="I8">
-        <v>0.6505460217686471</v>
+        <v>0.3876355191593572</v>
       </c>
       <c r="J8">
-        <v>0.6505460217686471</v>
+        <v>0.3876355191593572</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.360836486514916</v>
+        <v>0.6477360000000001</v>
       </c>
       <c r="N8">
-        <v>0.360836486514916</v>
+        <v>1.943208</v>
       </c>
       <c r="O8">
-        <v>0.01558843157808722</v>
+        <v>0.01923789385371424</v>
       </c>
       <c r="P8">
-        <v>0.01558843157808722</v>
+        <v>0.01923789385371424</v>
       </c>
       <c r="Q8">
-        <v>1.568043418421465</v>
+        <v>2.934991999168</v>
       </c>
       <c r="R8">
-        <v>1.568043418421465</v>
+        <v>26.414927992512</v>
       </c>
       <c r="S8">
-        <v>0.0101409921487374</v>
+        <v>0.007457290971517127</v>
       </c>
       <c r="T8">
-        <v>0.0101409921487374</v>
+        <v>0.007457290971517126</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.34557888966876</v>
+        <v>4.531154666666667</v>
       </c>
       <c r="H9">
-        <v>4.34557888966876</v>
+        <v>13.593464</v>
       </c>
       <c r="I9">
-        <v>0.6505460217686471</v>
+        <v>0.3876355191593572</v>
       </c>
       <c r="J9">
-        <v>0.6505460217686471</v>
+        <v>0.3876355191593572</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.71766304337762</v>
+        <v>17.94362233333333</v>
       </c>
       <c r="N9">
-        <v>8.71766304337762</v>
+        <v>53.830867</v>
       </c>
       <c r="O9">
-        <v>0.3766101792671516</v>
+        <v>0.5329293134854368</v>
       </c>
       <c r="P9">
-        <v>0.3766101792671516</v>
+        <v>0.5329293134854368</v>
       </c>
       <c r="Q9">
-        <v>37.8832924885473</v>
+        <v>81.30532807258756</v>
       </c>
       <c r="R9">
-        <v>37.8832924885473</v>
+        <v>731.7479526532879</v>
       </c>
       <c r="S9">
-        <v>0.2450022538798225</v>
+        <v>0.2065823311081671</v>
       </c>
       <c r="T9">
-        <v>0.2450022538798225</v>
+        <v>0.2065823311081671</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1030,49 +1030,49 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>1.87723795395895</v>
+        <v>0.08000233333333333</v>
       </c>
       <c r="H10">
-        <v>1.87723795395895</v>
+        <v>0.240007</v>
       </c>
       <c r="I10">
-        <v>0.2810280779309928</v>
+        <v>0.006844115528380393</v>
       </c>
       <c r="J10">
-        <v>0.2810280779309928</v>
+        <v>0.006844115528380393</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.75676995707127</v>
+        <v>4.723583666666666</v>
       </c>
       <c r="N10">
-        <v>3.75676995707127</v>
+        <v>14.170751</v>
       </c>
       <c r="O10">
-        <v>0.1622955372280468</v>
+        <v>0.1402914168557431</v>
       </c>
       <c r="P10">
-        <v>0.1622955372280468</v>
+        <v>0.1402914168557431</v>
       </c>
       <c r="Q10">
-        <v>7.052351147706924</v>
+        <v>0.3778977150285555</v>
       </c>
       <c r="R10">
-        <v>7.052351147706924</v>
+        <v>3.401079435257</v>
       </c>
       <c r="S10">
-        <v>0.04560960288397589</v>
+        <v>0.0009601706646008784</v>
       </c>
       <c r="T10">
-        <v>0.04560960288397589</v>
+        <v>0.0009601706646008784</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1092,49 +1092,49 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>1.87723795395895</v>
+        <v>0.08000233333333333</v>
       </c>
       <c r="H11">
-        <v>1.87723795395895</v>
+        <v>0.240007</v>
       </c>
       <c r="I11">
-        <v>0.2810280779309928</v>
+        <v>0.006844115528380393</v>
       </c>
       <c r="J11">
-        <v>0.2810280779309928</v>
+        <v>0.006844115528380393</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.3124400633765</v>
+        <v>10.354856</v>
       </c>
       <c r="N11">
-        <v>10.3124400633765</v>
+        <v>31.064568</v>
       </c>
       <c r="O11">
-        <v>0.4455058519267143</v>
+        <v>0.3075413758051058</v>
       </c>
       <c r="P11">
-        <v>0.4455058519267143</v>
+        <v>0.3075413758051058</v>
       </c>
       <c r="Q11">
-        <v>19.35890388489721</v>
+        <v>0.8284126413306666</v>
       </c>
       <c r="R11">
-        <v>19.35890388489721</v>
+        <v>7.455713771976</v>
       </c>
       <c r="S11">
-        <v>0.125199653273974</v>
+        <v>0.002104848705767195</v>
       </c>
       <c r="T11">
-        <v>0.125199653273974</v>
+        <v>0.002104848705767195</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>1.87723795395895</v>
+        <v>0.08000233333333333</v>
       </c>
       <c r="H12">
-        <v>1.87723795395895</v>
+        <v>0.240007</v>
       </c>
       <c r="I12">
-        <v>0.2810280779309928</v>
+        <v>0.006844115528380393</v>
       </c>
       <c r="J12">
-        <v>0.2810280779309928</v>
+        <v>0.006844115528380393</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.360836486514916</v>
+        <v>0.6477360000000001</v>
       </c>
       <c r="N12">
-        <v>0.360836486514916</v>
+        <v>1.943208</v>
       </c>
       <c r="O12">
-        <v>0.01558843157808722</v>
+        <v>0.01923789385371424</v>
       </c>
       <c r="P12">
-        <v>0.01558843157808722</v>
+        <v>0.01923789385371424</v>
       </c>
       <c r="Q12">
-        <v>0.6773759476589972</v>
+        <v>0.05182039138400001</v>
       </c>
       <c r="R12">
-        <v>0.6773759476589972</v>
+        <v>0.4663835224560001</v>
       </c>
       <c r="S12">
-        <v>0.004380786964348645</v>
+        <v>0.0001316663680575393</v>
       </c>
       <c r="T12">
-        <v>0.004380786964348645</v>
+        <v>0.0001316663680575393</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.08000233333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.240007</v>
+      </c>
+      <c r="I13">
+        <v>0.006844115528380393</v>
+      </c>
+      <c r="J13">
+        <v>0.006844115528380393</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>17.94362233333333</v>
+      </c>
+      <c r="N13">
+        <v>53.830867</v>
+      </c>
+      <c r="O13">
+        <v>0.5329293134854368</v>
+      </c>
+      <c r="P13">
+        <v>0.5329293134854368</v>
+      </c>
+      <c r="Q13">
+        <v>1.435531655118778</v>
+      </c>
+      <c r="R13">
+        <v>12.919784896069</v>
+      </c>
+      <c r="S13">
+        <v>0.003647429789954781</v>
+      </c>
+      <c r="T13">
+        <v>0.003647429789954781</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>6.553315</v>
+      </c>
+      <c r="H14">
+        <v>19.659945</v>
+      </c>
+      <c r="I14">
+        <v>0.5606292102380533</v>
+      </c>
+      <c r="J14">
+        <v>0.5606292102380533</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>4.723583666666666</v>
+      </c>
+      <c r="N14">
+        <v>14.170751</v>
+      </c>
+      <c r="O14">
+        <v>0.1402914168557431</v>
+      </c>
+      <c r="P14">
+        <v>0.1402914168557431</v>
+      </c>
+      <c r="Q14">
+        <v>30.95513169652167</v>
+      </c>
+      <c r="R14">
+        <v>278.596185268695</v>
+      </c>
+      <c r="S14">
+        <v>0.0786514662350128</v>
+      </c>
+      <c r="T14">
+        <v>0.0786514662350128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>6.553315</v>
+      </c>
+      <c r="H15">
+        <v>19.659945</v>
+      </c>
+      <c r="I15">
+        <v>0.5606292102380533</v>
+      </c>
+      <c r="J15">
+        <v>0.5606292102380533</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>10.354856</v>
+      </c>
+      <c r="N15">
+        <v>31.064568</v>
+      </c>
+      <c r="O15">
+        <v>0.3075413758051058</v>
+      </c>
+      <c r="P15">
+        <v>0.3075413758051058</v>
+      </c>
+      <c r="Q15">
+        <v>67.85863314764001</v>
+      </c>
+      <c r="R15">
+        <v>610.7276983287601</v>
+      </c>
+      <c r="S15">
+        <v>0.1724166786331408</v>
+      </c>
+      <c r="T15">
+        <v>0.1724166786331408</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1.87723795395895</v>
-      </c>
-      <c r="H13">
-        <v>1.87723795395895</v>
-      </c>
-      <c r="I13">
-        <v>0.2810280779309928</v>
-      </c>
-      <c r="J13">
-        <v>0.2810280779309928</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>8.71766304337762</v>
-      </c>
-      <c r="N13">
-        <v>8.71766304337762</v>
-      </c>
-      <c r="O13">
-        <v>0.3766101792671516</v>
-      </c>
-      <c r="P13">
-        <v>0.3766101792671516</v>
-      </c>
-      <c r="Q13">
-        <v>16.36512793485376</v>
-      </c>
-      <c r="R13">
-        <v>16.36512793485376</v>
-      </c>
-      <c r="S13">
-        <v>0.1058380348086943</v>
-      </c>
-      <c r="T13">
-        <v>0.1058380348086943</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>6.553315</v>
+      </c>
+      <c r="H16">
+        <v>19.659945</v>
+      </c>
+      <c r="I16">
+        <v>0.5606292102380533</v>
+      </c>
+      <c r="J16">
+        <v>0.5606292102380533</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.6477360000000001</v>
+      </c>
+      <c r="N16">
+        <v>1.943208</v>
+      </c>
+      <c r="O16">
+        <v>0.01923789385371424</v>
+      </c>
+      <c r="P16">
+        <v>0.01923789385371424</v>
+      </c>
+      <c r="Q16">
+        <v>4.244818044840001</v>
+      </c>
+      <c r="R16">
+        <v>38.20336240356001</v>
+      </c>
+      <c r="S16">
+        <v>0.01078532523785132</v>
+      </c>
+      <c r="T16">
+        <v>0.01078532523785132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>6.553315</v>
+      </c>
+      <c r="H17">
+        <v>19.659945</v>
+      </c>
+      <c r="I17">
+        <v>0.5606292102380533</v>
+      </c>
+      <c r="J17">
+        <v>0.5606292102380533</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>17.94362233333333</v>
+      </c>
+      <c r="N17">
+        <v>53.830867</v>
+      </c>
+      <c r="O17">
+        <v>0.5329293134854368</v>
+      </c>
+      <c r="P17">
+        <v>0.5329293134854368</v>
+      </c>
+      <c r="Q17">
+        <v>117.5902093913683</v>
+      </c>
+      <c r="R17">
+        <v>1058.311884522315</v>
+      </c>
+      <c r="S17">
+        <v>0.2987757401320484</v>
+      </c>
+      <c r="T17">
+        <v>0.2987757401320484</v>
       </c>
     </row>
   </sheetData>
